--- a/data/trans_bre/P27F_2_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P27F_2_R-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -602,239 +611,163 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-1,4</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,97</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>1,03</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-10,44%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>9,29%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>22,5%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-1.399168946299942</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>1.082482649019294</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>0.9637664882869088</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>-0.1044471492369634</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>0.1050047989361703</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>0.2105123119318168</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-5,25; 2,98</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-2,44; 4,11</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-1,73; 3,4</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-32,88; 26,92</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-19,07; 45,79</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-29,06; 103,0</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-5.249774141184507</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-2.316179461171544</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-1.746826258241261</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>-0.3287615650440577</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>-0.1834904595844624</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.3033257936279753</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>2.97668941873066</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>4.180031703733738</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>3.343064209421838</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>0.2692411462386327</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>0.4667637989491166</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>0.9802904376487614</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>3,06</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>1,62</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>3,79</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>28,61%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>18,12%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>79,15%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-2,59; 9,14</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-3,62; 7,19</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>0,21; 9,83</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-20,01; 119,0</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-31,77; 111,65</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-2,45; 266,87</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>3.055413637082212</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>1.487615532994004</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>3.296598016148359</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>0.2860508144975595</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>0.1648812833083114</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0.6765581725764487</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-4,36</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-61,7%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-2.586504543097672</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-3.734654151517257</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-0.3238010269068017</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>-0.2001448259958215</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.3287562926718554</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.09056326069927192</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-10,52; 0,6</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-91,65; 67,28</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>9.139577594992682</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>6.971555550770119</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>7.972843256023514</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>1.189989865692371</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>1.098622351684919</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>2.238329118057254</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -842,77 +775,137 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-0,37</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>1,15</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>1,45</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-2,91%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>11,4%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>29,24%</t>
-        </is>
+      <c r="C10" s="5" t="inlineStr"/>
+      <c r="D10" s="5" t="inlineStr"/>
+      <c r="E10" s="5" t="n">
+        <v>-4.222460919685833</v>
+      </c>
+      <c r="F10" s="6" t="inlineStr"/>
+      <c r="G10" s="6" t="inlineStr"/>
+      <c r="H10" s="6" t="n">
+        <v>-0.6114054220715738</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-3,46; 2,98</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-1,6; 4,02</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-0,79; 3,89</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-24,47; 26,77</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-13,62; 48,44</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-14,51; 98,69</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr"/>
+      <c r="D11" s="5" t="inlineStr"/>
+      <c r="E11" s="5" t="n">
+        <v>-10.36956085960291</v>
+      </c>
+      <c r="F11" s="6" t="inlineStr"/>
+      <c r="G11" s="6" t="inlineStr"/>
+      <c r="H11" s="6" t="n">
+        <v>-0.9176688652189779</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="inlineStr"/>
+      <c r="D12" s="5" t="inlineStr"/>
+      <c r="E12" s="5" t="n">
+        <v>0.5621337447645238</v>
+      </c>
+      <c r="F12" s="6" t="inlineStr"/>
+      <c r="G12" s="6" t="inlineStr"/>
+      <c r="H12" s="6" t="n">
+        <v>0.5994255554870085</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>-0.3712469359648446</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>1.201583636541094</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>1.245320035274988</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>-0.02912989563881366</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>0.1202180229274474</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.2499425359917645</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-3.456195664182691</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-1.446809960274821</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-0.9224867403889376</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>-0.244702382426086</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.1279018988282598</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.165449910469561</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>2.978411233775659</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>4.216728446010483</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>3.389308351286195</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>0.267666896837024</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>0.4886237229823669</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.8747131404854553</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -921,12 +914,12 @@
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
